--- a/src/main/resources/Teacher.xlsx
+++ b/src/main/resources/Teacher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spouter\JAVA\Github\ExcelUtil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spouter\JAVA\Github\ExcelUtil\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB723119-888C-47CD-BFF2-3FC20BD65DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90148359-9D1B-4B63-A313-4AB0DC064E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="4065" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="E41">
         <f ca="1">RANDBETWEEN(13000000000,19000000000)</f>
-        <v>17916830300</v>
+        <v>18572646045</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -1379,10 +1379,14 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F41"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -2199,7 +2203,7 @@
       </c>
       <c r="E41">
         <f ca="1">RANDBETWEEN(13000000000,19000000000)</f>
-        <v>15035656638</v>
+        <v>18861637304</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
